--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,15 +46,12 @@
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>evil</t>
+    <t>illegal</t>
   </si>
   <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
@@ -64,10 +61,16 @@
     <t>scary</t>
   </si>
   <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fake</t>
   </si>
   <si>
     <t>negative</t>
@@ -76,12 +79,12 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -94,10 +97,13 @@
     <t>important</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>media</t>
+    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -458,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,10 +472,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -527,13 +533,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -545,19 +551,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -569,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -598,16 +604,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>0.8666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="L4">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -619,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -627,13 +633,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -645,19 +651,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>0.82</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -669,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -677,13 +683,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8787878787878788</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -695,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6">
-        <v>0.6842105263157895</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -719,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -727,13 +733,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C7">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -745,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7">
         <v>0.5862068965517241</v>
@@ -777,13 +783,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -795,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>0.5733333333333334</v>
@@ -827,13 +833,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.675</v>
+        <v>0.5144927536231884</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -845,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.5333333333333333</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -869,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -877,13 +883,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -895,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.07832422586520947</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -919,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1012</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -948,16 +954,16 @@
         <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.02108433734939759</v>
+        <v>0.075591985428051</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -969,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>650</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -977,7 +983,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3428571428571429</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -995,7 +1001,57 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>0.01538461538461539</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>13</v>
+      </c>
+      <c r="N12">
+        <v>0.92</v>
+      </c>
+      <c r="O12">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
